--- a/spliced/walkingToRunning/2023-04-03_16-55-17/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-04-03_16-55-17/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-6.870490602824996</v>
+        <v>4.936917678169539</v>
       </c>
       <c r="B2" t="n">
-        <v>-18.44423136503801</v>
+        <v>-12.71771009072015</v>
       </c>
       <c r="C2" t="n">
-        <v>1.846112507840861</v>
+        <v>3.41959030731864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.919377161108931</v>
+        <v>11.45307619675343</v>
       </c>
       <c r="B3" t="n">
-        <v>-19.44320386389027</v>
+        <v>-9.954130877619217</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.790768362905641</v>
+        <v>7.623632503592415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-6.69960685398268</v>
+        <v>-3.206811956737363</v>
       </c>
       <c r="B4" t="n">
-        <v>-17.49487221759298</v>
+        <v>-14.22782378611358</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.001880023790419</v>
+        <v>-3.585576596467396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.742332152698358</v>
+        <v>-12.97183887854877</v>
       </c>
       <c r="B5" t="n">
-        <v>-14.64200949668885</v>
+        <v>-19.3549799711808</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.5405568195425894</v>
+        <v>-15.49820016778038</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7425733545551965</v>
+        <v>6.874614751857277</v>
       </c>
       <c r="B6" t="n">
-        <v>-14.08768825945647</v>
+        <v>-17.72338112540867</v>
       </c>
       <c r="C6" t="n">
-        <v>1.297409757323902</v>
+        <v>-7.79767358821371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4.936917678169539</v>
+        <v>27.40819798345139</v>
       </c>
       <c r="B7" t="n">
-        <v>-12.71771009072015</v>
+        <v>-14.00006047539093</v>
       </c>
       <c r="C7" t="n">
-        <v>3.41959030731864</v>
+        <v>1.457801404206576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11.45307619675343</v>
+        <v>40.11718940734848</v>
       </c>
       <c r="B8" t="n">
-        <v>-9.954130877619217</v>
+        <v>-4.808408617973335</v>
       </c>
       <c r="C8" t="n">
-        <v>7.623632503592415</v>
+        <v>16.45111835002897</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-3.206811956737363</v>
+        <v>-6.829358805780815</v>
       </c>
       <c r="B9" t="n">
-        <v>-14.22782378611358</v>
+        <v>-18.71223431048175</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.585576596467396</v>
+        <v>7.999558770138284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-12.97183887854877</v>
+        <v>-8.796926493230012</v>
       </c>
       <c r="B10" t="n">
-        <v>-19.3549799711808</v>
+        <v>-58.53746407446633</v>
       </c>
       <c r="C10" t="n">
-        <v>-15.49820016778038</v>
+        <v>6.315518513969705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.874614751857277</v>
+        <v>3.485328860904898</v>
       </c>
       <c r="B11" t="n">
-        <v>-17.72338112540867</v>
+        <v>-5.610776631728454</v>
       </c>
       <c r="C11" t="n">
-        <v>-7.79767358821371</v>
+        <v>-5.665500184764032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>27.40819798345139</v>
+        <v>-16.32176755822241</v>
       </c>
       <c r="B12" t="n">
-        <v>-14.00006047539093</v>
+        <v>-11.76148359671859</v>
       </c>
       <c r="C12" t="n">
-        <v>1.457801404206576</v>
+        <v>-5.036116931749546</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>40.11718940734848</v>
+        <v>16.76886541947075</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.808408617973335</v>
+        <v>-55.28290149439937</v>
       </c>
       <c r="C13" t="n">
-        <v>16.45111835002897</v>
+        <v>16.80483585855235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-6.829358805780815</v>
+        <v>-17.68672215420252</v>
       </c>
       <c r="B14" t="n">
-        <v>-18.71223431048175</v>
+        <v>-8.062301013780889</v>
       </c>
       <c r="C14" t="n">
-        <v>7.999558770138284</v>
+        <v>3.262691987597485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-8.796926493230012</v>
+        <v>6.037598153819246</v>
       </c>
       <c r="B15" t="n">
-        <v>-58.53746407446633</v>
+        <v>-26.96122758284862</v>
       </c>
       <c r="C15" t="n">
-        <v>6.315518513969705</v>
+        <v>22.58520386530009</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.485328860904898</v>
+        <v>-27.64734548071142</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.610776631728454</v>
+        <v>-30.63590854147206</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.665500184764032</v>
+        <v>-13.72450681354674</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-16.32176755822241</v>
+        <v>-0.3365890254143977</v>
       </c>
       <c r="B17" t="n">
-        <v>-11.76148359671859</v>
+        <v>-9.820995450019772</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.036116931749546</v>
+        <v>-11.5744883495828</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>16.76886541947075</v>
+        <v>-9.280692992003011</v>
       </c>
       <c r="B18" t="n">
-        <v>-55.28290149439937</v>
+        <v>-14.45616371476128</v>
       </c>
       <c r="C18" t="n">
-        <v>16.80483585855235</v>
+        <v>-11.51578338249869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-17.68672215420252</v>
+        <v>-4.598872557930385</v>
       </c>
       <c r="B19" t="n">
-        <v>-8.062301013780889</v>
+        <v>-17.49396556356679</v>
       </c>
       <c r="C19" t="n">
-        <v>3.262691987597485</v>
+        <v>6.897694048674124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.037598153819246</v>
+        <v>-11.20024363890936</v>
       </c>
       <c r="B20" t="n">
-        <v>-26.96122758284862</v>
+        <v>1.505196239637264</v>
       </c>
       <c r="C20" t="n">
-        <v>22.58520386530009</v>
+        <v>13.08335323955702</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-27.64734548071142</v>
+        <v>-36.36955037324309</v>
       </c>
       <c r="B21" t="n">
-        <v>-30.63590854147206</v>
+        <v>-40.35419501428967</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.72450681354674</v>
+        <v>41.72007127430098</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-64.13763353098994</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-54.61329487095708</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20.88871420984682</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-48.54061980869488</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-15.36169694817591</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-18.69812476116687</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-9.763155895730725</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-17.02286973725198</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.877094351727034</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-12.50246284319005</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-25.3144741265671</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.428819822228345</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-12.77425661294355</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-3.042295404102455</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24.03419656857195</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-11.1896470111351</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-11.74091952780091</v>
+      </c>
+      <c r="C27" t="n">
+        <v>15.447055526402</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-33.40386452882192</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-74.93744767230478</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35.67094943834376</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-55.71352932764142</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-17.14117759207022</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-22.77800974638568</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-7.357292139011771</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-6.564726891724789</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.292621791362762</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-26.65620994567871</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-36.59538269042969</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.42856240272522</v>
       </c>
     </row>
   </sheetData>
